--- a/results/pvalue_OFFSIDES_all_target_AUPRperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_target_AUPRperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24.843</t>
+          <t>56.379</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24.693</t>
+          <t>64.274</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.101</t>
+          <t>57.313</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.856</t>
+          <t>64.003</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.013</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.817</t>
+          <t>4.266</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
